--- a/Data/Input/SystemAccount.xlsx
+++ b/Data/Input/SystemAccount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E4D595-4276-4B36-A9E3-135031260C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C909E5-2205-455B-A06F-6088DAACA393}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,24 +46,13 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>91420102MA49KKX49W</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>武汉美丽田园职业培训学校有限责任公司2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>12345</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>乌克兰</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>CredentialName</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -72,7 +61,19 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>abcd</t>
+    <t>xxxx有限责任公司</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号名字</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1048,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1086,25 +1087,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
